--- a/WSC/Test Report/HRMS/WSC HRMS_HR Settings.xlsx
+++ b/WSC/Test Report/HRMS/WSC HRMS_HR Settings.xlsx
@@ -2428,7 +2428,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
